--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2142417.616199524</v>
+        <v>-2145305.57646969</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>252.7077160573365</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>383.0475747489804</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>260.1725466599127</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>166.0033067973633</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>12.45440842020581</v>
+        <v>112.6571527960865</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>88.09847704188293</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>317.954080866033</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>220.5847078764352</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>69.71535535959039</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>232.441526999115</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>20.66101211578901</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>81.8983043623861</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>55.30088041042189</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>173.5740289795526</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>172.9322023712997</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="U22" t="n">
-        <v>52.57516893522993</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.9322023712997</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1387.069036214947</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>727.1671091720125</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>309.2033010701994</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1773.985778385635</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1387.069036214947</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U4" t="n">
-        <v>221.623089696489</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V4" t="n">
-        <v>221.623089696489</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1562.681172365833</v>
+        <v>1104.379069117473</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.681172365833</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1562.681172365833</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>142.9313424687311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>142.9313424687311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>142.9313424687311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y7" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.02060534945</v>
+        <v>1038.452088347047</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.058088409038</v>
+        <v>669.4895714066356</v>
       </c>
       <c r="D8" t="n">
-        <v>1237.058088409038</v>
+        <v>669.4895714066356</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>283.7013188083914</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>276.7558180591879</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1026.437034711773</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1658.154845695085</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2151.286341942363</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1798.517686672249</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>1425.051928411169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.620445413572</v>
+        <v>1425.051928411169</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>439.3591974267897</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.904546893894</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1747.448946920904</v>
+        <v>2137.372643004866</v>
       </c>
       <c r="O9" t="n">
         <v>2296.884955673627</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.6664662373168</v>
+        <v>443.0860171055899</v>
       </c>
       <c r="C10" t="n">
         <v>372.6664662373168</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="V10" t="n">
-        <v>828.2484665920741</v>
+        <v>443.0860171055899</v>
       </c>
       <c r="W10" t="n">
-        <v>593.4590453808469</v>
+        <v>443.0860171055899</v>
       </c>
       <c r="X10" t="n">
-        <v>593.4590453808469</v>
+        <v>443.0860171055899</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.6664662373168</v>
+        <v>443.0860171055899</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5036,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>808.8888553856852</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2297.191819870655</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2077.590354893597</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>1788.515128237795</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1788.515128237795</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W13" t="n">
-        <v>1499.097958200834</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X13" t="n">
-        <v>1271.108407302817</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159287</v>
+        <v>990.537320215925</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,10 +5358,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1268.578514636218</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>378.6527890600109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>231.7628415621006</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>231.7628415621006</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1802.133778510961</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W19" t="n">
-        <v>1259.022373354577</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X19" t="n">
-        <v>1031.03282245656</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U22" t="n">
-        <v>1924.354849262801</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1669.670361056914</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1380.253191019954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1152.263640121936</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>931.4710609784063</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6698,7 +6698,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>243.4933181983575</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>428.6591547093815</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,19 +8532,19 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.4028261892669</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>414.5834604977821</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>71.21505670702061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>115.9221652340506</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.19036390707322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>120.5196915392277</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.5858089828388</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>99.12798163925849</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>84.99383243580201</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>112.6104454096915</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>113.5907959652913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>4.845153664064696</v>
       </c>
       <c r="U22" t="n">
-        <v>233.6093054540142</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.65245098079512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1158303.800190542</v>
+        <v>1158303.800190541</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215493</v>
+        <v>48691.36674215489</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="F2" t="n">
         <v>60535.99497675046</v>
       </c>
-      <c r="F2" t="n">
-        <v>60535.99497675043</v>
-      </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.1327398212</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.1327398212</v>
+        <v>61578.13273982118</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982127</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682748</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682735</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682757</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682749</v>
-      </c>
       <c r="J4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
+        <v>13668.39582977622</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13668.39582977622</v>
+      </c>
+      <c r="O4" t="n">
         <v>13668.39582977621</v>
       </c>
-      <c r="N4" t="n">
-        <v>13668.39582977625</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13668.39582977626</v>
-      </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-735986.7827719058</v>
+        <v>-736416.3416384946</v>
       </c>
       <c r="C6" t="n">
         <v>-231203.3607866215</v>
       </c>
       <c r="D6" t="n">
-        <v>-387007.1668804165</v>
+        <v>-387007.1668804166</v>
       </c>
       <c r="E6" t="n">
-        <v>-817316.7627946457</v>
+        <v>-817351.5007200814</v>
       </c>
       <c r="F6" t="n">
-        <v>-46264.07141383942</v>
+        <v>-46298.80933927509</v>
       </c>
       <c r="G6" t="n">
-        <v>-46264.07141383942</v>
+        <v>-46298.80933927512</v>
       </c>
       <c r="H6" t="n">
-        <v>-46264.07141383939</v>
+        <v>-46298.8093392751</v>
       </c>
       <c r="I6" t="n">
-        <v>-46264.07141383942</v>
+        <v>-46298.80933927509</v>
       </c>
       <c r="J6" t="n">
         <v>-251105.3161300951</v>
       </c>
       <c r="K6" t="n">
-        <v>-55254.3789438704</v>
+        <v>-55254.37894387044</v>
       </c>
       <c r="L6" t="n">
-        <v>-55254.37894387034</v>
+        <v>-55254.37894387038</v>
       </c>
       <c r="M6" t="n">
         <v>-179462.8896519289</v>
       </c>
       <c r="N6" t="n">
-        <v>-55254.37894387037</v>
+        <v>-55254.37894387038</v>
       </c>
       <c r="O6" t="n">
-        <v>-74682.09693750218</v>
+        <v>-74682.09693750211</v>
       </c>
       <c r="P6" t="n">
-        <v>-55254.37894387039</v>
+        <v>-55254.37894387036</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>135.3020022742388</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.8276855108789</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>26.10932758206502</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>352.8184833508017</v>
+        <v>252.615738974921</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>79.21132521716798</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>63.97628920622878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>192.3321960695016</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>97.53146573903744</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.08147133747605</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,7 +31850,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>755.4040473746018</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,13 +32078,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>677.2750468965965</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7190218511039</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>626.4629682828348</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>622.3466130915036</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>384.2293341996233</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>624.9563394487576</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>321.018581760675</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>615.2468359045141</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>109.7875025528271</v>
@@ -35422,7 +35422,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>624.0623352912685</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066232</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998974</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35726,13 +35726,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>535.1410129745782</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>94.75954470991793</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>132.4173135558164</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
@@ -36768,7 +36768,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
         <v>144.686904791938</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37005,10 +37005,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>207.1227774066595</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>483.8667238383904</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>479.7503686470592</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
